--- a/biology/Histoire de la zoologie et de la botanique/Lewis_Caleb_Beck/Lewis_Caleb_Beck.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lewis_Caleb_Beck/Lewis_Caleb_Beck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lewis Caleb Beck est un chimiste et un botaniste américain, né le 4 octobre 1798 à Schenectady, New York et mort le 20 avril 1853 à Albany.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est fils de Caleb Beck et de Catherine née Romeyn. Il fait ses études à l’Union College de Schenectady en 1816 et étudie ensuite à l’école de médecine et de chirurgie de New York. Diplômé de médecine en 1818, il exerce dans divers endroits des États-Unis d'Amérique et profite de ses déplacements pour récolter activement des plantes.
 Il enseigne la botanique à partir de 1824 à l’Institut médical de Berkshire puis est nommé professeur de chimie et de botanique à l’Académie de médecine du Vermont en 1826. En 1830, il commence à enseigner la chimie à l’université Rutgers puis, en 1836, à celle de New York. De 1840 et jusqu’à sa mort, il enseigne la chimie et la pharmacie à l’école de médecine d’Albany.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « Beck, Lewis Caleb », dans George E. Rines, Encyclopedia Americana, 1920 (lire sur Wikisource)
 Ressources relatives à la recherche : Biodiversity Heritage Library Harvard University Herbaria &amp; Libraries International Plant Names Index  
